--- a/DOM_Banner/output/dept_banner/Ernest Vina_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/Ernest Vina_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH4"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,561 +360,275 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>authors_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>author</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>ab</t>
+          <t>publication_date</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>publication_date</t>
+          <t>so</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>so</t>
+          <t>host_organization</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>so_id</t>
+          <t>url</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>host_organization</t>
+          <t>license</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>issn_l</t>
+          <t>version</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>url</t>
+          <t>oa_status</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>pdf_url</t>
+          <t>language</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>license</t>
+          <t>cited_by_count</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>version</t>
+          <t>publication_year</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>first_page</t>
+          <t>pmid</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>last_page</t>
+          <t>doi</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>issue</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>is_oa</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>is_oa_anywhere</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>oa_status</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>oa_url</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>any_repository_has_fulltext</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>language</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>grants</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>cited_by_count</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>publication_year</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>cited_by_api_url</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>ids</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>doi</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
           <t>type</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>referenced_works</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>related_works</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>is_paratext</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>is_retracted</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>Chelsie Hurst, Maira Soto, Ernest R. Vina, Kathleen E. Rodgers</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4311114312</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>Renin-Angiotensin System-Modifying Antihypertensive Drugs Can Reduce the Risk of Cardiovascular Complications in Lupus: A Retrospective Cohort Study</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>list(au_id = c("https://openalex.org/A5084852163", "https://openalex.org/A5004491784", "https://openalex.org/A5088631049", "https://openalex.org/A5067739581"), au_display_name = c("Chelsie Hurst", "Maira Soto", "Ernest R. Vina", "Kathleen E. Rodgers"), au_orcid = c(NA, "https://orcid.org/0000-0002-0021-5330", "https://orcid.org/0000-0001-8135-1731", "https://orcid.org/0000-0002-4590-7728"), author_position = c("first", "middle", "middle", "last"), au_affiliation_raw = c("Department of Pharmacology, Center for Innovation in Brain Science, College of Medicine, University of Arizona, Tucson, AZ.", 
-"Department of Pharmacology, Center for Innovation in Brain Science, College of Medicine, University of Arizona, Tucson", "Section of Rheumatology, Lewis Katz School of Medicine, Temple University, Philadelphia, Pa", "Department of Pharmacology, Center for Innovation in Brain Science, College of Medicine, University of Arizona, Tucson"), institution_id = c("https://openalex.org/I138006243", "https://openalex.org/I138006243", "https://openalex.org/I84392919", "https://openalex.org/I138006243"), institution_display_name = c("University of Arizona", 
-"University of Arizona", "Temple University", "University of Arizona"), institution_ror = c("https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45", "https://ror.org/00kx1jb78", "https://ror.org/03m2x1q45"), institution_country_code = c("US", "US", "US", "US"), institution_type = c("education", "education", "education", "education"), institution_lineage = c("https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I84392919", 
-"https://openalex.org/I138006243, https://openalex.org/I3132585960"))</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Patients with systemic lupus erythematosus have a higher incidence of cardiovascular disease than the general population. Antihypertensive drugs that modify the renin-angiotensin system (RAS) are used to protect renal function in lupus nephritis and may also have extrarenal effects that lower cardiovascular disease risk due to their anti-inflammatory properties. In this study, we compared the effects of RAS vs non-RAS antihypertensive drugs on cardiovascular disease incidence in patients with lupus.Using a medical insurance claims dataset, 220,168 patients with lupus were identified, of which 31,647 patients (4018 patients prescribed RAS drugs, 27,629 patients prescribed non-RAS drugs) were eligible for the study. Patients had a mean age of 46.1 years, were 93.0% female, and healthy (96.9% Charlson Comorbidity Index score 0-4). Patients in the 2 drug groups were propensity score matched using demographic data, risk factors, and comorbidities.Use of RAS vs non-RAS drugs lowered the relative risk (RR) of diagnosis of cardiovascular disease (RR 0.80; 95% confidence interval [CI], 0.74-0.87), which was more pronounced after propensity score matching (RR 0.62; 95% CI, 0.57-0.68). The decreased risk in cardiovascular disease occurred regardless of lupus nephritis status (with lupus nephritis: RR 0.51; 95% CI, 0.39-0.65; without lupus nephritis: RR 0.65; 95% CI, 0.59-0.72). RAS-modifying therapies significantly increased cardiovascular disease-free survival probability over a 5-year period (86.0% vs 78.3% probability).RAS-modifying drugs reduced the risk of cardiovascular disease in patients with systemic lupus erythematosus in this dataset. These findings have the potential to impact clinical decision-making with regards to hypertension management in patients with lupus.</t>
+          <t>2023-03-01</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2023-03-01</t>
+          <t>The American Journal of Medicine</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>The American Journal of Medicine</t>
+          <t>Elsevier BV</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://openalex.org/S186920367</t>
+          <t>https://doi.org/10.1016/j.amjmed.2022.11.016</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Elsevier BV</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0002-9343</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>bronze</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>https://pubmed.ncbi.nlm.nih.gov/36495935</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1016/j.amjmed.2022.11.016</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>http://www.amjmed.com/article/S0002934322008683/pdf</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>publishedVersion</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>284</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>293.e4</t>
-        </is>
-      </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>136</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>bronze</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>http://www.amjmed.com/article/S0002934322008683/pdf</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>c(funder = "https://openalex.org/F4320337337", funder_display_name = "National Institute on Aging", award_id = "2P01AG026572", funder = "https://openalex.org/F4320337359", funder_display_name = "National Institute of Neurological Disorders and Stroke", award_id = "5R25NS107185")</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>https://api.openalex.org/works?filter=cites:W4311114312</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>c(openalex = "https://openalex.org/W4311114312", doi = "https://doi.org/10.1016/j.amjmed.2022.11.016", pmid = "https://pubmed.ncbi.nlm.nih.gov/36495935")</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/j.amjmed.2022.11.016</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
           <t>article</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>c("https://openalex.org/W152526299", "https://openalex.org/W224511669", "https://openalex.org/W945203368", "https://openalex.org/W1497688421", "https://openalex.org/W1542808053", "https://openalex.org/W1592232168", "https://openalex.org/W1963756694", "https://openalex.org/W1965048371", "https://openalex.org/W1984266821", "https://openalex.org/W2024228574", "https://openalex.org/W2029625310", "https://openalex.org/W2036193982", "https://openalex.org/W2044410409", "https://openalex.org/W2065538858", 
-"https://openalex.org/W2072693781", "https://openalex.org/W2077424194", "https://openalex.org/W2081133146", "https://openalex.org/W2102758999", "https://openalex.org/W2116989135", "https://openalex.org/W2119071155", "https://openalex.org/W2119483296", "https://openalex.org/W2121586011", "https://openalex.org/W2125226221", "https://openalex.org/W2125996612", "https://openalex.org/W2129931607", "https://openalex.org/W2130077869", "https://openalex.org/W2133302438", "https://openalex.org/W2143701771", 
-"https://openalex.org/W2149113739", "https://openalex.org/W2151119767", "https://openalex.org/W2153835671", "https://openalex.org/W2156830808", "https://openalex.org/W2157972885", "https://openalex.org/W2158351198", "https://openalex.org/W2164873542", "https://openalex.org/W2165779517", "https://openalex.org/W2198866495", "https://openalex.org/W2228305902", "https://openalex.org/W2414716738", "https://openalex.org/W2414784657", "https://openalex.org/W2483963880", "https://openalex.org/W2515510714", 
-"https://openalex.org/W2561173593", "https://openalex.org/W2580636537", "https://openalex.org/W2623631675", "https://openalex.org/W2751703796", "https://openalex.org/W2770837559", "https://openalex.org/W2791138970", "https://openalex.org/W2806152658", "https://openalex.org/W2889566041", "https://openalex.org/W2889875251", "https://openalex.org/W2919669080", "https://openalex.org/W2934325311", "https://openalex.org/W2961010067", "https://openalex.org/W2967060433", "https://openalex.org/W3013081823", 
-"https://openalex.org/W3015429033", "https://openalex.org/W3092341073", "https://openalex.org/W4205186352", "https://openalex.org/W4239096779", "https://openalex.org/W4249800853", "https://openalex.org/W4376595881")</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>c("https://openalex.org/W2098134050", "https://openalex.org/W2776803289", "https://openalex.org/W2778847013", "https://openalex.org/W2364717911", "https://openalex.org/W2158944380", "https://openalex.org/W3166910253", "https://openalex.org/W3214891379", "https://openalex.org/W2177092523", "https://openalex.org/W2121244867", "https://openalex.org/W2951958669")</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>Ernest R. Vina, Pritash Patel, Carolina Villamil Grest, C. Kent Kwoh, Jason T. Jakiela, Thomas Bye, Daniel K. White</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4385406895</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>Does Physical Activity Confound Race Differences in &lt;scp&gt;Osteoarthritis‐Related&lt;/scp&gt; Functional Limitation?</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>list(au_id = c("https://openalex.org/A5088631049", "https://openalex.org/A5083860424", "https://openalex.org/A5051337894", "https://openalex.org/A5040967883", "https://openalex.org/A5004008915", "https://openalex.org/A5075093778", "https://openalex.org/A5063788359"), au_display_name = c("Ernest R. Vina", "Pritash Patel", "Carolina Villamil Grest", "C. Kent Kwoh", "Jason T. Jakiela", "Thomas Bye", "Daniel K. White"), au_orcid = c("https://orcid.org/0000-0001-8135-1731", "https://orcid.org/0000-0002-0900-0758", 
-"https://orcid.org/0000-0001-8078-0921", "https://orcid.org/0000-0001-5937-550X", "https://orcid.org/0000-0001-7397-7603", NA, "https://orcid.org/0000-0003-3792-4621"), author_position = c("first", "middle", "middle", "middle", "middle", "middle", "last"), au_affiliation_raw = c("Lewis Katz School of Medicine, Section of Rheumatology, Temple University, Philadelphia, PA; University of Arizona College of Medicine, Division of Rheumatology, University of Arizona, Tucson, AZ", "Lewis Katz School of Medicine, Section of Rheumatology, Temple University, Philadelphia, PA", 
-"School of Social Work, College of Public Health, Temple University, Philadelphia, PA", "University of Arizona College of Medicine, Division of Rheumatology, University of Arizona, Tucson, AZ", "Department of Physical Therapy, University of Delaware, Newark, DE", "Department of Physical Therapy, University of Delaware, Newark, DE", "Department of Physical Therapy, University of Delaware, Newark, DE"), institution_id = c("https://openalex.org/I84392919", "https://openalex.org/I84392919", "https://openalex.org/I84392919", 
-"https://openalex.org/I138006243", "https://openalex.org/I86501945", "https://openalex.org/I86501945", "https://openalex.org/I86501945"), institution_display_name = c("Temple University", "Temple University", "Temple University", "University of Arizona", "University of Delaware", "University of Delaware", "University of Delaware"), institution_ror = c("https://ror.org/00kx1jb78", "https://ror.org/00kx1jb78", "https://ror.org/00kx1jb78", "https://ror.org/03m2x1q45", "https://ror.org/01sbq1a82", "https://ror.org/01sbq1a82", 
-"https://ror.org/01sbq1a82"), institution_country_code = c("US", "US", "US", "US", "US", "US", "US"), institution_type = c("education", "education", "education", "education", "education", "education", "education"), institution_lineage = c("https://openalex.org/I84392919", "https://openalex.org/I84392919", "https://openalex.org/I84392919", "https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I86501945", "https://openalex.org/I86501945", "https://openalex.org/I86501945"
-))</t>
-        </is>
-      </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>This study sought to determine the extent to which physical activity confounds the relation between race and the incidence of osteoarthritis (OA)-related functional limitation.OA Initiative study participants with or at increased risk of knee OA who wore an accelerometer were included. Race was self-reported. Average time spent in moderate to vigorous physical activity (minutes per day) based on ActiGraph uniaxial accelerometer data was assessed. Functional limitation was based on the following: (1) inability to achieve a community walking speed (1.2 m/s) standard, (2) slow walking speed (&lt;1.0 m/s), and (3) low physical functioning based on a Western Ontario and McMaster Universities OA Index (WOMAC) physical function score greater than 28 of 68.African American (AA) participants (n = 226), compared with White participants (n = 1348), had a higher likelihood of developing functional limitation based on various measures. When adjusted for time in moderate to vigorous physical activity, the association between AA race and inability to walk a community walking speed slightly decreased (from relative risk [RR] 2.15, 95% confidence interval [95% CI] 1.64-2.81, to RR 1.99, 95% CI 1.51-2.61). Association between AA race and other measures of functional limitation mildly decreased (slow walking speed: from RR 2.06, 95% CI 1.40-3.01, to RR 1.82, 95% CI 1.25-2.63; low physical functioning: from RR 3.44, 95% CI 1.96-6.03, to RR 3.10, 95% CI 1.79-5.39). When further adjusted for demographic and other clinical variables, only the association between race and low physical functioning (WOMAC) significantly decreased and no longer met statistical significance.Greater physical activity is unlikely to completely make up for race differences in OA-related functional limitation, and other barriers to health equity need to be addressed.</t>
+          <t>2023-10-25</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2023-10-25</t>
+          <t>Arthritis Care &amp; Research</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Arthritis Care &amp; Research</t>
+          <t>Wiley</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://openalex.org/S13698240</t>
+          <t>https://doi.org/10.1002/acr.25209</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Wiley</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2151-464X</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37518677</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1002/acr.25209</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>closed</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>https://api.openalex.org/works?filter=cites:W4385406895</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>c(openalex = "https://openalex.org/W4385406895", doi = "https://doi.org/10.1002/acr.25209", pmid = "https://pubmed.ncbi.nlm.nih.gov/37518677")</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1002/acr.25209</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
           <t>article</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>c("https://openalex.org/W1541923384", "https://openalex.org/W1810570100", "https://openalex.org/W1996998435", "https://openalex.org/W1998648360", "https://openalex.org/W2002391889", "https://openalex.org/W2005739307", "https://openalex.org/W2010163891", "https://openalex.org/W2011781303", "https://openalex.org/W2028383004", "https://openalex.org/W2032188378", "https://openalex.org/W2055134004", "https://openalex.org/W2059759356", "https://openalex.org/W2076786730", "https://openalex.org/W2078170390", 
-"https://openalex.org/W2079542119", "https://openalex.org/W2081651663", "https://openalex.org/W2082288111", "https://openalex.org/W2086340263", "https://openalex.org/W2090324495", "https://openalex.org/W2093505519", "https://openalex.org/W2109554053", "https://openalex.org/W2112778345", "https://openalex.org/W2115719600", "https://openalex.org/W2119958965", "https://openalex.org/W2122766247", "https://openalex.org/W2124219362", "https://openalex.org/W2140513563", "https://openalex.org/W2164571520", 
-"https://openalex.org/W2167644721", "https://openalex.org/W2172151487", "https://openalex.org/W2335799697", "https://openalex.org/W2492374075", "https://openalex.org/W2621562959", "https://openalex.org/W2787237157", "https://openalex.org/W2790364164", "https://openalex.org/W2801175038", "https://openalex.org/W2903959999", "https://openalex.org/W2921027128", "https://openalex.org/W2953543968", "https://openalex.org/W2965262972", "https://openalex.org/W3000036091", "https://openalex.org/W3097162568", 
-"https://openalex.org/W3154873774", "https://openalex.org/W3196697531", "https://openalex.org/W4294183730")</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>c("https://openalex.org/W2748952813", "https://openalex.org/W3031052312", "https://openalex.org/W4389568370", "https://openalex.org/W3032375762", "https://openalex.org/W1995515455", "https://openalex.org/W2080531066", "https://openalex.org/W2586801360", "https://openalex.org/W3108674512", "https://openalex.org/W1506200166", "https://openalex.org/W1489783725")</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>FALSE</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>Dave Francisco, Ernest R. Vina, Eduardo Romero‐Vecchione</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4388430437</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>Hemodynamic Validation of a Polytetrafluoroethylene Flow Diverter for Basilar Artery Aneurysm</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>list(au_id = c("https://openalex.org/A5077977488", "https://openalex.org/A5088631049", "https://openalex.org/A5067378037"), au_display_name = c("Dave Francisco", "Ernest R. Vina", "Eduardo Romero‐Vecchione"), au_orcid = c(NA, "https://orcid.org/0000-0001-8135-1731", NA), author_position = c("first", "middle", "last"), au_affiliation_raw = c("Metropolitan University", "Universidad Central de Venezuela", "Universidad Central de Venezuela"), institution_id = c(NA, "https://openalex.org/I82002896", 
-"https://openalex.org/I82002896"), institution_display_name = c(NA, "Central University of Venezuela", "Central University of Venezuela"), institution_ror = c(NA, "https://ror.org/05kacnm89", "https://ror.org/05kacnm89"), institution_country_code = c(NA, "VE", "VE"), institution_type = c(NA, "education", "education"), institution_lineage = c(NA, "https://openalex.org/I82002896", "https://openalex.org/I82002896"))</t>
-        </is>
-      </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>2023-01-01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>2023-01-01</t>
-        </is>
-      </c>
       <c r="F4" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -922,143 +636,52 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
+          <t>https://doi.org/10.2139/ssrn.4612658</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>submittedVersion</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
           <t>https://doi.org/10.2139/ssrn.4612658</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>submittedVersion</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>closed</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="AA4" t="inlineStr">
-        <is>
-          <t>https://api.openalex.org/works?filter=cites:W4388430437</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>c(openalex = "https://openalex.org/W4388430437", doi = "https://doi.org/10.2139/ssrn.4612658")</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.2139/ssrn.4612658</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
           <t>article</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>c("https://openalex.org/W1589184931", "https://openalex.org/W1993314767", "https://openalex.org/W2005022824", "https://openalex.org/W2022547688", "https://openalex.org/W2024360082", "https://openalex.org/W2060765641", "https://openalex.org/W2063709313", "https://openalex.org/W2118145123", "https://openalex.org/W2126125036", "https://openalex.org/W2159826769", "https://openalex.org/W2162135255", "https://openalex.org/W2338735221", "https://openalex.org/W2532686640", "https://openalex.org/W2892514672", 
-"https://openalex.org/W2898033497", "https://openalex.org/W2913536849", "https://openalex.org/W3007558289", "https://openalex.org/W3165692207", "https://openalex.org/W3176440988", "https://openalex.org/W3207845840")</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>c("https://openalex.org/W2353549788", "https://openalex.org/W3011289935", "https://openalex.org/W2115438718", "https://openalex.org/W2390022239", "https://openalex.org/W4318590675", "https://openalex.org/W2594552261", "https://openalex.org/W2624883888", "https://openalex.org/W2896800251", "https://openalex.org/W2070880412", "https://openalex.org/W3124814692")</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>FALSE</t>
         </is>
       </c>
     </row>

--- a/DOM_Banner/output/dept_banner/Ernest Vina_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/Ernest Vina_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,75 +452,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Department of Pharmacology, Center for Innovation in Brain Science, College of Medicine, University of Arizona, Tucson, AZ.; Department of Pharmacology, Center for Innovation in Brain Science, College of Medicine, University of Arizona, Tucson; Section of Rheumatology, Lewis Katz School of Medicine, Temple University, Philadelphia, Pa; Department of Pharmacology, Center for Innovation in Brain Science, College of Medicine, University of Arizona, Tucson</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4311114312</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Renin-Angiotensin System-Modifying Antihypertensive Drugs Can Reduce the Risk of Cardiovascular Complications in Lupus: A Retrospective Cohort Study</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2023-03-01</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>The American Journal of Medicine</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.amjmed.2022.11.016</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36495935</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.amjmed.2022.11.016</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -524,80 +534,85 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Ernest R. Vina, Pritash Patel, Carolina Villamil Grest, C. Kent Kwoh, Jason T. Jakiela, Thomas Bye, Daniel K. White</t>
+          <t>Dave Francisco, Ernest R. Vina, Eduardo Romero‐Vecchione</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4385406895</t>
+          <t>Metropolitan University; Universidad Central de Venezuela; Universidad Central de Venezuela</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Does Physical Activity Confound Race Differences in &lt;scp&gt;Osteoarthritis‐Related&lt;/scp&gt; Functional Limitation?</t>
+          <t>https://openalex.org/W4388430437</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2023-10-25</t>
+          <t>Hemodynamic Validation of a Polytetrafluoroethylene Flow Diverter for Basilar Artery Aneurysm</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Arthritis Care &amp; Research</t>
+          <t>2023-01-01</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Wiley</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/acr.25209</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
+          <t>https://doi.org/10.2139/ssrn.4612658</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="J3" t="inlineStr">
         <is>
+          <t>submittedVersion</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37518677</t>
-        </is>
-      </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/acr.25209</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.2139/ssrn.4612658</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -606,80 +621,85 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Dave Francisco, Ernest R. Vina, Eduardo Romero‐Vecchione</t>
+          <t>Ernest R. Vina, Pritash Patel, Carolina Villamil Grest, C. Kent Kwoh, Jason T. Jakiela, Thomas Bye, Daniel K. White</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4388430437</t>
+          <t>Lewis Katz School of Medicine, Section of Rheumatology, Temple University, Philadelphia, PA; University of Arizona College of Medicine, Division of Rheumatology, University of Arizona, Tucson, AZ; Lewis Katz School of Medicine, Section of Rheumatology, Temple University, Philadelphia, PA; School of Social Work, College of Public Health, Temple University, Philadelphia, PA; University of Arizona College of Medicine, Division of Rheumatology, University of Arizona, Tucson, AZ; Department of Physical Therapy, University of Delaware, Newark, DE; Department of Physical Therapy, University of Delaware, Newark, DE; Department of Physical Therapy, University of Delaware, Newark, DE</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Hemodynamic Validation of a Polytetrafluoroethylene Flow Diverter for Basilar Artery Aneurysm</t>
+          <t>https://openalex.org/W4385406895</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>Does Physical Activity Confound Race Differences in &lt;scp&gt;Osteoarthritis‐Related&lt;/scp&gt; Functional Limitation?</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>2023-10-25</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Arthritis Care &amp; Research</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Wiley</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1002/acr.25209</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.2139/ssrn.4612658</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>submittedVersion</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2139/ssrn.4612658</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37518677</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1002/acr.25209</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
         <is>
           <t>article</t>
         </is>
